--- a/list-github.xlsx
+++ b/list-github.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\Disertasi Bu Uce\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\Disertasi Bu Uce\scrapping-github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43462D2-EFDB-47C2-894D-0B4D35CB0EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158AC6EC-96E0-4CFC-BFB7-39A91E0CDC92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="81">
   <si>
     <t>link</t>
   </si>
@@ -34,6 +34,12 @@
     <t>author</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
     <t>https://github.com/pkp/pkp-lib/issues/2493</t>
   </si>
   <si>
@@ -46,6 +52,9 @@
     <t>asmecher</t>
   </si>
   <si>
+    <t>Introduce replacement toolset for ADODB.Core schema management for installationIntroduce migrations for core upgradesSchema creation for pluginsUpgrades for plugins [not currently supported but will be necessary for future plugin schema changes] [Edit: This was already present but never used! GrepPLUGIN_UPGRADE_FILE.] [Also apparently never worked.]</t>
+  </si>
+  <si>
     <t>https://github.com/pkp/pkp-lib/issues/4017</t>
   </si>
   <si>
@@ -58,6 +67,9 @@
     <t>israelcefrin</t>
   </si>
   <si>
+    <t>In OJS 2.x is possible to send an e-mail to multiple users in a particular roles from the enrolled users page or by using the “notify users” function. However, this functionality is not enabled/present in OJS3. Would be feasible consider it for future releases@asmecher@bozana?</t>
+  </si>
+  <si>
     <t>https://github.com/pkp/pkp-lib/issues/4796</t>
   </si>
   <si>
@@ -70,6 +82,9 @@
     <t>NateWr</t>
   </si>
   <si>
+    <t>Describe the problem you would like to solveEditors would like to be able to filter the email templates list by those which are related to one or another workflow stage.Describe the solution you'd likeAdd filters to the existing email templates list. Since some templates are not used in the workflow, there should be one or more filters or other templates (eg - Registration).Who is asking for this feature?It was part of the initial request of#2906and is a common community request.Additional informationInformation on the workflow stage has been added to the docs hub.https://docs.pkp.sfu.ca/learning-ojs/en/settings-workflow#template-descriptions</t>
+  </si>
+  <si>
     <t>https://github.com/pkp/pkp-lib/issues/5181</t>
   </si>
   <si>
@@ -79,6 +94,9 @@
     <t>Basic search form in default theme is not accessible</t>
   </si>
   <si>
+    <t>Our accessibility audit found several issues with the basic search form in the header on our default theme. The animated box should probably be scrapped in favor of a simpler, static input and search field.</t>
+  </si>
+  <si>
     <t>https://github.com/pkp/pkp-lib/issues/5182</t>
   </si>
   <si>
@@ -88,6 +106,9 @@
     <t>Advanced search form has fieldset, legend and label errors</t>
   </si>
   <si>
+    <t>The advanced search form has several errors with its fieldset, legend and label HTML markup. Details are available in the accessibility audit document and I will expand on this issue with further recommendations at a later date.</t>
+  </si>
+  <si>
     <t>https://github.com/pkp/pkp-lib/issues/5183</t>
   </si>
   <si>
@@ -97,6 +118,70 @@
     <t>Add legend for fieldset elements on register and login forms</t>
   </si>
   <si>
+    <t>Our accessibility audit recommended that we need to include&lt;legend&gt;elements in&lt;fieldset&gt;tags.This is intended to be used by screenreaders to describe what are the options or fields to check or fill.Also, this is not intended to be visually available but for screenreaders to parse. When adding thelegendelement it should beCSSformated to not to be shown on web browser, i.e.,display:hidden;We should change the code on login page from this:&lt;fieldset class="fields"&gt;
+&lt;div class="username"&gt;
+&lt;label&gt;
+&lt;span class="label"&gt;
+Username
+&lt;span class="required"&gt;*&lt;/span&gt;
+&lt;span class="pkp_screen_reader"&gt;
+Required
+&lt;/span&gt;
+&lt;/span&gt;
+[...]
+&lt;/fieldset&gt;To this&lt;fieldset class="fields"&gt;
+&lt;legend&gt;Username and Password credentials&lt;/legend&gt;
+&lt;div class="username"&gt;
+&lt;label&gt;
+&lt;span class="label"&gt;
+Username
+&lt;span class="required"&gt;*&lt;/span&gt;
+&lt;span class="pkp_screen_reader"&gt;
+Required
+&lt;/span&gt;
+&lt;/span&gt;
+[...]
+&lt;/fieldset&gt;Also we need add&lt;legend&gt;element in&lt;fieldset class="consent"&gt;and&lt;fieldset class="review"&gt;elements on register page that are missing them. The consent and reviewer class need to be adjusted.The&lt;fieldset class="consent"&gt;should change from this:&lt;fieldset class="consent"&gt;
+&lt;div class="fields"&gt;
+&lt;div class="optin optin-privacy"&gt;
+&lt;label&gt;
+&lt;input type="checkbox" name="privacyConsent" value="1"&gt;
+Yes, I agree to have my data collected and stored according to the &lt;a href="https://uiux.publicknowledgeproject.org/ojs/index.php/publicknowledge/about/privacy" target="_blank"&gt;privacy statement&lt;/a&gt;.
+&lt;/label&gt;
+&lt;/div&gt;
+[...]
+&lt;/fieldset&gt;To this:&lt;fieldset class="consent"&gt;
+&lt;legend&gt;Options to consent&lt;legend&gt;
+&lt;div class="fields"&gt;
+&lt;div class="optin optin-privacy"&gt;
+&lt;label&gt;
+&lt;input type="checkbox" name="privacyConsent" value="1"&gt;
+Yes, I agree to have my data collected and stored according to the &lt;a href="https://uiux.publicknowledgeproject.org/ojs/index.php/publicknowledge/about/privacy" target="_blank"&gt;privacy statement&lt;/a&gt;.
+&lt;/label&gt;
+&lt;/div&gt;
+[...]
+&lt;/fieldset&gt;And the&lt;fieldset class="review"&gt;should change from this:&lt;fieldset class="reviewer"&gt;
+&lt;div class="fields"&gt;
+&lt;div id="reviewerOptinGroup" class="optin"&gt;
+&lt;label&gt;
+&lt;input type="checkbox" name="reviewerGroup[16]" value="1"&gt;
+Yes, I would like to be contacted with requests to review submissions to this journal.
+&lt;/label&gt;
+																					&lt;/div&gt;
+[...]
+&lt;/fieldset&gt;To this:&lt;fieldset class="reviewer"&gt;
+&lt;legend&gt;Consent to be contacted as reviewer&lt;/legend&gt;
+&lt;div class="fields"&gt;
+	&lt;div id="reviewerOptinGroup" class="optin"&gt;
+	&lt;label&gt;
+	&lt;input type="checkbox" name="reviewerGroup[16]" value="1"&gt;
+	Yes, I would like to be contacted with requests to review submissions to this journal.
+	&lt;/label&gt;
+	&lt;/div&gt;
+[...]
+&lt;/fieldset&gt;</t>
+  </si>
+  <si>
     <t>https://github.com/pkp/pkp-lib/issues/5184</t>
   </si>
   <si>
@@ -106,6 +191,9 @@
     <t>Reviewer interests in registration form is not accessible</t>
   </si>
   <si>
+    <t>The accessibility audit identified that the reviewer interests input does not have a label. I believe that this is a limitation of the jQuery UI autocomplete field, and that even remediating the label issue will not be enough to make it accessible.We have developed a WCAG-compliant autocomplete field in our UI Library, so we may need to pull that component out of the library and use it on the registration page.</t>
+  </si>
+  <si>
     <t>https://github.com/pkp/pkp-lib/issues/5185</t>
   </si>
   <si>
@@ -115,6 +203,9 @@
     <t>Add autocomplete fields to registration and login forms.</t>
   </si>
   <si>
+    <t>A newer requirement of WCAG 2.1 is to use autocomplete on all non-sensitive form fields. For example:&lt;input type="text" name="name" autocomplete="given-name"&gt;A full list of valid values arehttps://www.w3.org/TR/WCAG21/#input-purposes.When an appropriate autocomplete type exists, it should be added to the registration and login forms.</t>
+  </si>
+  <si>
     <t>https://github.com/pkp/pkp-lib/issues/5186</t>
   </si>
   <si>
@@ -124,6 +215,9 @@
     <t>Add aria-required to register and login forms</t>
   </si>
   <si>
+    <t>Wherever therequiredattribute exists on a field in the registration and login forms, thearia-required="true"attribute should also be included:&lt;input type="email" name="email" required aria-required="true"&gt;</t>
+  </si>
+  <si>
     <t>https://github.com/pkp/pkp-lib/issues/5187</t>
   </si>
   <si>
@@ -133,6 +227,9 @@
     <t>Address color contrast issues in default theme.</t>
   </si>
   <si>
+    <t>The following text does not have sufficient colour contrast, as identified in our accessibility audit.The default header color needs to beslightlydarker to ensure that the search button's contrast is sufficient.And the background color of the header when viewing a PDF needs to be darker -- probably the same color has the header of the site.</t>
+  </si>
+  <si>
     <t>https://github.com/pkp/pkp-lib/issues/5188</t>
   </si>
   <si>
@@ -142,6 +239,9 @@
     <t>All font sizes should be defined in rems in the default theme</t>
   </si>
   <si>
+    <t>As part of our accessibility audit, we were encouraged to abandon the use ofpxto define font sizes. I'd prefer we userem, and we should be able to get rid of most cases in the default theme just by editing thevariables.lessfile.</t>
+  </si>
+  <si>
     <t>https://github.com/pkp/pkp-lib/issues/5189</t>
   </si>
   <si>
@@ -151,6 +251,9 @@
     <t>Improve focus indicators in default themes</t>
   </si>
   <si>
+    <t>The following elements are lacking clear indication when they are focused (eg - by moving to them with the tab button):The user nav menu items.The register and login links and buttons, as well as the search button.The following elements need stronger visual identification when they are focused:The logo linkThe main nav menu items (the line could be larger, or a new outlined pattern could be used)</t>
+  </si>
+  <si>
     <t>https://github.com/pkp/pkp-lib/issues/5619</t>
   </si>
   <si>
@@ -160,6 +263,9 @@
     <t>Custom blocks need a title for accessibility</t>
   </si>
   <si>
+    <t>Describe the problem you would like to solveEvery block shown in the sidebar needs to have a heading (&lt;h2&gt;). These have been added to all blocks, but currently the Custom Block plugin does not support adding a title to each block. It only has a "block name" which doesn't support spaces.Describe the solution you'd likeCustom blocks need to have a place for a multilingual title. This field should be required but to be compatible with existing use cases it should be optional to hide the title.I recommend that we automatically generate the block name from the title (primary locale) so that the user doesn't ever have to enter it.Who is asking for this feature?This is necessary for the custom blocks to meet accessibility standards.</t>
+  </si>
+  <si>
     <t>https://github.com/pkp/pkp-lib/issues/5917</t>
   </si>
   <si>
@@ -169,6 +275,13 @@
     <t>Simplify use of journal title and logo in theme header templates</t>
   </si>
   <si>
+    <t>Describe the problem you would like to solveThe theme templates use a complex mix of variables, such asdisplayPageHeaderLogoanddisplayPageHeaderTitle, to determine when to display a logo or the journal title in the header. These variables refer to obsolete features from OJS 2.x and they are not consistently set between the site and context level, which led to#5789.This is unnecessarily complicated for deciding whether to show a logo or journal title.Describe the solution you'd likeThe templates should receive a variable, such as$logo, which isnullor an assoc array with the url and alt text. They can then decide what they want the display logic to be:{if $logo}
+  &lt;img ...&gt;
+{else}
+  &lt;a ...&gt;...&lt;/a&gt;
+{/if}This is simpler and will work consistently across the site and context levels.Who is asking for this feature?Just me.Additional informationThis is a more substantial refactor to address#5789which should go into a major release (3.x).</t>
+  </si>
+  <si>
     <t>https://github.com/pkp/pkp-lib/issues/6038</t>
   </si>
   <si>
@@ -178,6 +291,9 @@
     <t>Convert submission section filter to an autosuggest</t>
   </si>
   <si>
+    <t>Describe the problem you would like to solveSome journals have a lot of sections. This can lead to a large, unwieldy list in the submission filters.Describe the solution you'd likeWhen there are more than 5 sections, the section filters should use an autosuggest component.</t>
+  </si>
+  <si>
     <t>https://github.com/pkp/pkp-lib/issues/5275</t>
   </si>
   <si>
@@ -187,6 +303,9 @@
     <t>Provide averages for editorial statistics</t>
   </si>
   <si>
+    <t>The neweditorial report statisticsoriginally planned to include an Average/Year for each recorded statistic. This was dropped due to uncertainty about how the averages should be calculated.These should be added again after considering the points raised inthis comment.Instead of adding a new table column, I thought it might be better to add averages as a part of the Total column:Date RangeTotalSubmissions Received1050 (12/year)That might help clarify the difference between stats that are part of the date range and stats that aren't.</t>
+  </si>
+  <si>
     <t>https://github.com/pkp/pkp-lib/issues/5388</t>
   </si>
   <si>
@@ -196,6 +315,9 @@
     <t>Submission keywords are not indexed/searchable</t>
   </si>
   <si>
+    <t>The built-in search index does not index the "Keywords" metadata field and thus it is not searchable. (The "Subjects" field, which also uses the Controlled Vocabulary tools, is indexed and searchable.)Make sure that all the metadata fields are indexed and searchable.</t>
+  </si>
+  <si>
     <t>https://github.com/pkp/pkp-lib/issues/5540</t>
   </si>
   <si>
@@ -203,13 +325,20 @@
   </si>
   <si>
     <t>Date formats should allow different configurations for each language</t>
+  </si>
+  <si>
+    <t>Describe the problem you would like to solveThe date formats are defined in the config file. Different languages may require distinct formats. This makes it challenging to find date formats that are appropriate across all languages. In a multi-tenant setup, where each journal is completely distinct, it may also be challenging to find a format that all tentants agree upon.Describe the solution you'd likeA couple of options.Allow distinct settings in the config file for each language:date_format_long[en_US] = "%B %e, %Y"
+date_format_long[fr_CA] = "%e %B %Y"All unique date formats to be set for each journal/press through the in-app settings.It would be nice to support both, so that defaults could be set in the config file and each journal/press manager could override them with their own. This would be particularly important for SaaS or multi-tenant setups.cc@mfelczakto see if this is something hosting is interested in.Who is asking for this feature?An administrator of a multi-lingual journal. See theoriginal request.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,6 +350,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -255,16 +392,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -565,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:F18"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -577,9 +718,11 @@
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="70.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="255.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -592,260 +735,377 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2">
+        <v>42859</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2">
+        <v>43339</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2">
+        <v>43612</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2">
+        <v>43756</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2">
+        <v>43756</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43756</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="2">
+        <v>43756</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2">
+        <v>43756</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="2">
+        <v>43756</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="2">
+        <v>43756</v>
+      </c>
+      <c r="F11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="2">
+        <v>43756</v>
+      </c>
+      <c r="F12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="2">
+        <v>43756</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="2">
+        <v>43901</v>
+      </c>
+      <c r="F14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="2">
+        <v>43977</v>
+      </c>
+      <c r="F15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="2">
+        <v>44006</v>
+      </c>
+      <c r="F16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="2">
+        <v>43784</v>
+      </c>
+      <c r="F17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" s="2">
+        <v>43843</v>
+      </c>
+      <c r="F18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="E19" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F19" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{46FF887D-4BE3-4428-8BFE-718AAFDED849}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>